--- a/Payslip process/Data/International Consultants_07_08_2020.xlsx
+++ b/Payslip process/Data/International Consultants_07_08_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhoa\Documents\UiPath\HR Payroll Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA149E4E-2686-42EB-97D0-F54C3FB0A0BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0740F3D2-D452-4D5E-8F06-956662B41F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{60A08499-9B67-4414-A1F4-7BE19E1A6B38}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{60A08499-9B67-4414-A1F4-7BE19E1A6B38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,26 +614,26 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" customWidth="1"/>
-    <col min="6" max="6" width="61.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="14" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="3"/>
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -698,11 +698,11 @@
       </c>
       <c r="H2" s="3">
         <f ca="1">RANDBETWEEN(7,25)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(36,50)</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>36</v>
@@ -712,14 +712,14 @@
       </c>
       <c r="L2" s="3">
         <f ca="1">RANDBETWEEN(20,50)</f>
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="M2" s="3">
         <f ca="1">H2*I2+L2</f>
-        <v>736</v>
+        <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -743,11 +743,11 @@
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H11" ca="1" si="0">RANDBETWEEN(7,25)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I11" ca="1" si="1">RANDBETWEEN(36,50)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>36</v>
@@ -757,14 +757,14 @@
       </c>
       <c r="L3" s="3">
         <f t="shared" ref="L3:L11" ca="1" si="2">RANDBETWEEN(20,50)</f>
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ref="M3:M11" ca="1" si="3">H3*I3+L3</f>
-        <v>1211</v>
+        <v>931</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -788,11 +788,11 @@
       </c>
       <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>36</v>
@@ -802,14 +802,14 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>466</v>
+        <v>818</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
@@ -847,14 +847,14 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>379</v>
+        <v>1241</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>105</v>
       </c>
@@ -878,11 +878,11 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J6">
         <v>36</v>
@@ -892,14 +892,14 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1222</v>
+        <v>371</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>106</v>
       </c>
@@ -923,11 +923,11 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>36</v>
@@ -937,14 +937,14 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>744</v>
+        <v>1020</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>107</v>
       </c>
@@ -968,11 +968,11 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>36</v>
@@ -982,14 +982,14 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1217</v>
+        <v>726</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1013,11 +1013,11 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J9">
         <v>36</v>
@@ -1031,10 +1031,10 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>349</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J10">
         <v>36</v>
@@ -1072,14 +1072,14 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>577</v>
+        <v>948</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
@@ -1117,11 +1117,11 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1011</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
